--- a/agricultura/componentes_sedimentos.xlsx
+++ b/agricultura/componentes_sedimentos.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLIMAC\Desktop\Datasets\ambiente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLIMAC\Documents\gorelambayeque\datasets-lambayeque\agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0AB6DB-ACF6-4F27-8823-CCDB013EEAC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8879C338-C57C-46D0-8323-8F174A8DADB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{FAE80DBB-93C7-40B8-B211-47751F5BA76B}"/>
+    <workbookView xWindow="23970" yWindow="2205" windowWidth="26025" windowHeight="17190" xr2:uid="{FAE80DBB-93C7-40B8-B211-47751F5BA76B}"/>
   </bookViews>
   <sheets>
     <sheet name="IPASH_Sedimento_arsenico" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IPASH_Sedimento_arsenico!$A$1:$U$219</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3256" uniqueCount="179">
   <si>
     <t>NÃºmero de informe</t>
   </si>
@@ -514,9 +517,6 @@
     <t>Muestra puntual  de sedimento tomada a 1 m  en direcciÃ³n sur de la ubicaciÃ³n del Pozo y a una  profundidad  de 0,1 m de la superficie del suelo.</t>
   </si>
   <si>
-    <t>7/14/16</t>
-  </si>
-  <si>
     <t>&lt;0.3</t>
   </si>
   <si>
@@ -556,10 +556,10 @@
     <t>La toma de muestra se realizo en el mismo lugar del pozo</t>
   </si>
   <si>
-    <t>10/21/13</t>
-  </si>
-  <si>
     <t>&lt;0.6</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
   </si>
 </sst>
 </file>
@@ -1043,11 +1043,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1405,78 +1414,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2397BB07-1C27-45ED-82F0-EDA104406200}">
   <dimension ref="A1:U219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A219"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="38.7109375" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
     <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="20" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="27" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="R1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -15049,17 +15067,17 @@
       <c r="P210" t="s">
         <v>32</v>
       </c>
-      <c r="Q210" t="s">
-        <v>164</v>
+      <c r="Q210" s="1">
+        <v>42565</v>
       </c>
       <c r="R210" s="2">
         <v>0.50138888888888888</v>
       </c>
       <c r="S210" t="s">
+        <v>164</v>
+      </c>
+      <c r="T210" t="s">
         <v>165</v>
-      </c>
-      <c r="T210" t="s">
-        <v>166</v>
       </c>
       <c r="U210" t="s">
         <v>35</v>
@@ -15114,8 +15132,8 @@
       <c r="P211" t="s">
         <v>32</v>
       </c>
-      <c r="Q211" t="s">
-        <v>164</v>
+      <c r="Q211" s="1">
+        <v>42565</v>
       </c>
       <c r="R211" s="2">
         <v>0.50138888888888888</v>
@@ -15179,8 +15197,8 @@
       <c r="P212" t="s">
         <v>32</v>
       </c>
-      <c r="Q212" t="s">
-        <v>164</v>
+      <c r="Q212" s="1">
+        <v>42565</v>
       </c>
       <c r="R212" s="2">
         <v>0.50138888888888888</v>
@@ -15244,8 +15262,8 @@
       <c r="P213" t="s">
         <v>32</v>
       </c>
-      <c r="Q213" t="s">
-        <v>164</v>
+      <c r="Q213" s="1">
+        <v>42565</v>
       </c>
       <c r="R213" s="2">
         <v>0.50138888888888888</v>
@@ -15254,7 +15272,7 @@
         <v>443</v>
       </c>
       <c r="T213" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="U213" t="s">
         <v>35</v>
@@ -15262,10 +15280,10 @@
     </row>
     <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>167</v>
+      </c>
+      <c r="B214" t="s">
         <v>168</v>
-      </c>
-      <c r="B214" t="s">
-        <v>169</v>
       </c>
       <c r="C214" t="s">
         <v>23</v>
@@ -15280,7 +15298,7 @@
         <v>26</v>
       </c>
       <c r="G214" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H214">
         <v>464607</v>
@@ -15298,7 +15316,7 @@
         <v>28</v>
       </c>
       <c r="M214" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N214" t="s">
         <v>30</v>
@@ -15313,7 +15331,7 @@
         <v>41732</v>
       </c>
       <c r="R214" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S214" s="3">
         <v>160869000</v>
@@ -15327,10 +15345,10 @@
     </row>
     <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>167</v>
+      </c>
+      <c r="B215" t="s">
         <v>168</v>
-      </c>
-      <c r="B215" t="s">
-        <v>169</v>
       </c>
       <c r="C215" t="s">
         <v>23</v>
@@ -15345,7 +15363,7 @@
         <v>26</v>
       </c>
       <c r="G215" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H215">
         <v>464607</v>
@@ -15363,7 +15381,7 @@
         <v>28</v>
       </c>
       <c r="M215" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N215" t="s">
         <v>30</v>
@@ -15378,7 +15396,7 @@
         <v>41732</v>
       </c>
       <c r="R215" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="S215" s="3">
         <v>812616000</v>
@@ -15392,10 +15410,10 @@
     </row>
     <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>167</v>
+      </c>
+      <c r="B216" t="s">
         <v>168</v>
-      </c>
-      <c r="B216" t="s">
-        <v>169</v>
       </c>
       <c r="C216" t="s">
         <v>23</v>
@@ -15410,7 +15428,7 @@
         <v>26</v>
       </c>
       <c r="G216" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H216">
         <v>464607</v>
@@ -15428,7 +15446,7 @@
         <v>28</v>
       </c>
       <c r="M216" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N216" t="s">
         <v>30</v>
@@ -15443,10 +15461,10 @@
         <v>41732</v>
       </c>
       <c r="R216" t="s">
+        <v>171</v>
+      </c>
+      <c r="S216" t="s">
         <v>172</v>
-      </c>
-      <c r="S216" t="s">
-        <v>173</v>
       </c>
       <c r="T216" t="s">
         <v>127</v>
@@ -15457,10 +15475,10 @@
     </row>
     <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>173</v>
+      </c>
+      <c r="B217" t="s">
         <v>174</v>
-      </c>
-      <c r="B217" t="s">
-        <v>175</v>
       </c>
       <c r="C217" t="s">
         <v>23</v>
@@ -15475,7 +15493,7 @@
         <v>26</v>
       </c>
       <c r="G217" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H217">
         <v>539348</v>
@@ -15493,7 +15511,7 @@
         <v>28</v>
       </c>
       <c r="M217" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N217" t="s">
         <v>30</v>
@@ -15504,7 +15522,7 @@
       <c r="P217" t="s">
         <v>32</v>
       </c>
-      <c r="Q217" t="s">
+      <c r="Q217" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R217" s="2">
@@ -15522,10 +15540,10 @@
     </row>
     <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>173</v>
+      </c>
+      <c r="B218" t="s">
         <v>174</v>
-      </c>
-      <c r="B218" t="s">
-        <v>175</v>
       </c>
       <c r="C218" t="s">
         <v>23</v>
@@ -15540,7 +15558,7 @@
         <v>26</v>
       </c>
       <c r="G218" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H218">
         <v>539348</v>
@@ -15558,7 +15576,7 @@
         <v>28</v>
       </c>
       <c r="M218" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N218" t="s">
         <v>30</v>
@@ -15569,7 +15587,7 @@
       <c r="P218" t="s">
         <v>32</v>
       </c>
-      <c r="Q218" t="s">
+      <c r="Q218" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R218" s="2">
@@ -15587,10 +15605,10 @@
     </row>
     <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>173</v>
+      </c>
+      <c r="B219" t="s">
         <v>174</v>
-      </c>
-      <c r="B219" t="s">
-        <v>175</v>
       </c>
       <c r="C219" t="s">
         <v>23</v>
@@ -15605,7 +15623,7 @@
         <v>26</v>
       </c>
       <c r="G219" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H219">
         <v>539348</v>
@@ -15623,7 +15641,7 @@
         <v>28</v>
       </c>
       <c r="M219" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N219" t="s">
         <v>30</v>
@@ -15634,14 +15652,14 @@
       <c r="P219" t="s">
         <v>32</v>
       </c>
-      <c r="Q219" t="s">
+      <c r="Q219" s="6" t="s">
         <v>178</v>
       </c>
       <c r="R219" s="2">
         <v>0.53819444444444442</v>
       </c>
       <c r="S219" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="T219" t="s">
         <v>127</v>
@@ -15651,6 +15669,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:U219" xr:uid="{2397BB07-1C27-45ED-82F0-EDA104406200}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>